--- a/part_table.xlsx
+++ b/part_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="0" windowWidth="17190" windowHeight="6195"/>
+    <workbookView xWindow="18600" yWindow="0" windowWidth="17190" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="183">
   <si>
     <t>DCAFILE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,6 +529,168 @@
   </si>
   <si>
     <t>rgs7</t>
+  </si>
+  <si>
+    <t>os_gap1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_gap2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_gap3</t>
+  </si>
+  <si>
+    <t>os_gap4</t>
+  </si>
+  <si>
+    <t>os_gap5</t>
+  </si>
+  <si>
+    <t>os_gap6</t>
+  </si>
+  <si>
+    <t>os_gap7</t>
+  </si>
+  <si>
+    <t>ds_gap1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds_gap2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds_gap3</t>
+  </si>
+  <si>
+    <t>ds_gap4</t>
+  </si>
+  <si>
+    <t>ds_gap5</t>
+  </si>
+  <si>
+    <t>ds_gap6</t>
+  </si>
+  <si>
+    <t>ds_gap7</t>
+  </si>
+  <si>
+    <t>FM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG2_F5OSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG2_F6OSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG2_F7OSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG1_F1OSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG1_F2OSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG1_F3OSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG1_F4OSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG1_F1DSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG1_F2DSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG1_F3DSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG1_F4DSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG2_F5DSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG2_F6DSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_AG2_F7DSGAPFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff_rolling_force1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff_rolling_force2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff_rolling_force3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff_rolling_force4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff_rolling_force5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff_rolling_force6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff_rolling_force7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_F1H_DIFRLFCFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_F2H_DIFRLFCFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_F3H_DIFRLFCFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_F4H_DIFRLFCFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_F5H_DIFRLFCFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_F6H_DIFRLFCFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_F7H_DIFRLFCFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -561,7 +723,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,6 +778,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -631,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,6 +828,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,15 +1113,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2088,6 +2259,552 @@
       </c>
       <c r="D83" s="9"/>
     </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D86" s="10"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" s="10"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="10"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" s="10"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="10"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D101" s="10"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D102" s="10"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" s="10"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/part_table.xlsx
+++ b/part_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29592" yWindow="0" windowWidth="17196" windowHeight="6204"/>
+    <workbookView xWindow="31404" yWindow="0" windowWidth="17196" windowHeight="6204"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="352">
   <si>
     <t>SIGNAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1284,6 +1284,26 @@
   </si>
   <si>
     <t>wedge40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sym_flt_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asym_flt_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7XFLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTSYM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTASYM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1325,7 +1345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1398,6 +1418,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1428,7 +1454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1478,6 +1504,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1760,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2434,45 +2463,45 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>1580</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>57</v>
+      <c r="A48" s="17">
+        <v>1580</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
-        <v>1580</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>58</v>
+      <c r="A49" s="17">
+        <v>1580</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <v>1580</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>59</v>
+      <c r="A50" s="17">
+        <v>2250</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2480,13 +2509,13 @@
         <v>1580</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2494,13 +2523,13 @@
         <v>1580</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2508,55 +2537,55 @@
         <v>1580</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2564,13 +2593,13 @@
         <v>2250</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2578,13 +2607,13 @@
         <v>2250</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2592,223 +2621,223 @@
         <v>2250</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>2250</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>2250</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>2250</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>1580</v>
-      </c>
-      <c r="B60" s="6" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
-        <v>2250</v>
-      </c>
-      <c r="B61" s="6" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>2250</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>1580</v>
-      </c>
-      <c r="B62" s="2" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>2250</v>
-      </c>
-      <c r="B63" s="2" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
-        <v>1580</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>2250</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
-        <v>1580</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
-        <v>1580</v>
+        <v>2250</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
-        <v>1580</v>
+        <v>2250</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>2250</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>1580</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>2250</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D74" s="9" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
-        <v>1580</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
-        <v>1580</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
-        <v>1580</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2816,13 +2845,13 @@
         <v>1580</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2830,13 +2859,13 @@
         <v>1580</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2844,13 +2873,13 @@
         <v>1580</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2858,55 +2887,55 @@
         <v>1580</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2914,13 +2943,13 @@
         <v>2250</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2928,13 +2957,13 @@
         <v>2250</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2942,13 +2971,13 @@
         <v>2250</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,55 +2985,55 @@
         <v>2250</v>
       </c>
       <c r="B85" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>2250</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D88" s="10" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="11">
-        <v>1580</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="11">
-        <v>1580</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="11">
-        <v>1580</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,13 +3041,13 @@
         <v>1580</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,13 +3055,13 @@
         <v>1580</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3040,13 +3069,13 @@
         <v>1580</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3054,55 +3083,55 @@
         <v>1580</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3110,13 +3139,13 @@
         <v>2250</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,13 +3153,13 @@
         <v>2250</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3138,13 +3167,13 @@
         <v>2250</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3152,55 +3181,55 @@
         <v>2250</v>
       </c>
       <c r="B99" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
+        <v>2250</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="11">
+        <v>2250</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>2250</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C102" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D102" s="11" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="12">
-        <v>1580</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="12">
-        <v>1580</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="12">
-        <v>1580</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3208,13 +3237,13 @@
         <v>1580</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,13 +3251,13 @@
         <v>1580</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3236,13 +3265,13 @@
         <v>1580</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3250,55 +3279,55 @@
         <v>1580</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3306,13 +3335,13 @@
         <v>2250</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3320,13 +3349,13 @@
         <v>2250</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3334,13 +3363,13 @@
         <v>2250</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3348,55 +3377,55 @@
         <v>2250</v>
       </c>
       <c r="B113" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="12">
+        <v>2250</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="12">
+        <v>2250</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="12">
+        <v>2250</v>
+      </c>
+      <c r="B116" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C116" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D116" s="12" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>1580</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>1580</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>1580</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3404,13 +3433,13 @@
         <v>1580</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3418,13 +3447,13 @@
         <v>1580</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3432,13 +3461,13 @@
         <v>1580</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3446,55 +3475,55 @@
         <v>1580</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3502,13 +3531,13 @@
         <v>2250</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3516,13 +3545,13 @@
         <v>2250</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3530,13 +3559,13 @@
         <v>2250</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3544,55 +3573,55 @@
         <v>2250</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
-        <v>1580</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
-        <v>1580</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
-        <v>1580</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3600,13 +3629,13 @@
         <v>1580</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3614,13 +3643,13 @@
         <v>1580</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3628,13 +3657,13 @@
         <v>1580</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3642,55 +3671,55 @@
         <v>1580</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3698,13 +3727,13 @@
         <v>2250</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3712,13 +3741,13 @@
         <v>2250</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3726,13 +3755,13 @@
         <v>2250</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3740,60 +3769,66 @@
         <v>2250</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D144" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="12">
-        <v>1580</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="D142" s="12"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="12">
-        <v>1580</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="D143" s="12"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="12">
-        <v>1580</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="D144" s="12"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>1580</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D145" s="12"/>
     </row>
@@ -3802,10 +3837,10 @@
         <v>1580</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D146" s="12"/>
     </row>
@@ -3814,10 +3849,10 @@
         <v>1580</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D147" s="12"/>
     </row>
@@ -3826,10 +3861,10 @@
         <v>1580</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D148" s="12"/>
     </row>
@@ -3838,10 +3873,10 @@
         <v>1580</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D149" s="12"/>
     </row>
@@ -3850,10 +3885,10 @@
         <v>1580</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D150" s="12"/>
     </row>
@@ -3862,10 +3897,10 @@
         <v>1580</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D151" s="12"/>
     </row>
@@ -3874,10 +3909,10 @@
         <v>1580</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D152" s="12"/>
     </row>
@@ -3886,10 +3921,10 @@
         <v>1580</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D153" s="12"/>
     </row>
@@ -3898,10 +3933,10 @@
         <v>1580</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D154" s="12"/>
     </row>
@@ -3910,46 +3945,46 @@
         <v>1580</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D155" s="12"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D156" s="12"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D157" s="12"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D158" s="12"/>
     </row>
@@ -3958,10 +3993,10 @@
         <v>2250</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D159" s="12"/>
     </row>
@@ -3970,10 +4005,10 @@
         <v>2250</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D160" s="12"/>
     </row>
@@ -3982,10 +4017,10 @@
         <v>2250</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D161" s="12"/>
     </row>
@@ -3994,10 +4029,10 @@
         <v>2250</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D162" s="12"/>
     </row>
@@ -4006,10 +4041,10 @@
         <v>2250</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D163" s="12"/>
     </row>
@@ -4018,10 +4053,10 @@
         <v>2250</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D164" s="12"/>
     </row>
@@ -4030,10 +4065,10 @@
         <v>2250</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D165" s="12"/>
     </row>
@@ -4042,10 +4077,10 @@
         <v>2250</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D166" s="12"/>
     </row>
@@ -4054,10 +4089,10 @@
         <v>2250</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D167" s="12"/>
     </row>
@@ -4066,10 +4101,10 @@
         <v>2250</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D168" s="12"/>
     </row>
@@ -4078,67 +4113,61 @@
         <v>2250</v>
       </c>
       <c r="B169" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D169" s="12"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="12">
+        <v>2250</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D170" s="12"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="12">
+        <v>2250</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D171" s="12"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="12">
+        <v>2250</v>
+      </c>
+      <c r="B172" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="C172" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D169" s="12"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>1580</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>1580</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>1580</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="D172" s="12"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>1580</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4146,13 +4175,13 @@
         <v>1580</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4160,13 +4189,13 @@
         <v>1580</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4174,55 +4203,55 @@
         <v>1580</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>2250</v>
+        <v>1580</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4230,13 +4259,13 @@
         <v>2250</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,13 +4273,13 @@
         <v>2250</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4258,13 +4287,13 @@
         <v>2250</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4272,83 +4301,83 @@
         <v>2250</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="4">
-        <v>1580</v>
-      </c>
-      <c r="B184" s="4" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>1580</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C187" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="D187" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="4">
-        <v>2250</v>
-      </c>
-      <c r="B185" s="4" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C188" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="D188" s="4" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="11">
-        <v>1580</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="D186" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="11">
-        <v>1580</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="11">
-        <v>1580</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4356,13 +4385,13 @@
         <v>1580</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4370,13 +4399,13 @@
         <v>1580</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4384,13 +4413,13 @@
         <v>1580</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4398,55 +4427,55 @@
         <v>1580</v>
       </c>
       <c r="B192" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="11">
+        <v>1580</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="11">
+        <v>1580</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="11">
+        <v>1580</v>
+      </c>
+      <c r="B195" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C195" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="D192" s="11" t="s">
+      <c r="D195" s="11" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="14">
-        <v>2250</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C193" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="D193" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="14">
-        <v>2250</v>
-      </c>
-      <c r="B194" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C194" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="D194" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="14">
-        <v>2250</v>
-      </c>
-      <c r="B195" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C195" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="D195" s="14" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4454,13 +4483,13 @@
         <v>2250</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4468,13 +4497,13 @@
         <v>2250</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4482,13 +4511,13 @@
         <v>2250</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4496,55 +4525,55 @@
         <v>2250</v>
       </c>
       <c r="B199" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C199" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D199" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="14">
+        <v>2250</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C200" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D200" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="14">
+        <v>2250</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D201" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="14">
+        <v>2250</v>
+      </c>
+      <c r="B202" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C199" s="14" t="s">
+      <c r="C202" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="D199" s="14" t="s">
+      <c r="D202" s="14" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="13">
-        <v>1580</v>
-      </c>
-      <c r="B200" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C200" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D200" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="13">
-        <v>1580</v>
-      </c>
-      <c r="B201" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="D201" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="13">
-        <v>1580</v>
-      </c>
-      <c r="B202" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C202" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="D202" s="15" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4552,13 +4581,13 @@
         <v>1580</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4566,13 +4595,13 @@
         <v>1580</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4580,13 +4609,13 @@
         <v>1580</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4594,55 +4623,55 @@
         <v>1580</v>
       </c>
       <c r="B206" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="13">
+        <v>1580</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="13">
+        <v>1580</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D208" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="13">
+        <v>1580</v>
+      </c>
+      <c r="B209" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="C209" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="D206" s="15" t="s">
+      <c r="D209" s="15" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="15">
-        <v>2250</v>
-      </c>
-      <c r="B207" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D207" s="15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="15">
-        <v>2250</v>
-      </c>
-      <c r="B208" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C208" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="D208" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="15">
-        <v>2250</v>
-      </c>
-      <c r="B209" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="D209" s="15" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4650,13 +4679,13 @@
         <v>2250</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4664,13 +4693,13 @@
         <v>2250</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4678,13 +4707,13 @@
         <v>2250</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4692,55 +4721,55 @@
         <v>2250</v>
       </c>
       <c r="B213" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C213" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D213" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="15">
+        <v>2250</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C214" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D214" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="15">
+        <v>2250</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C215" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D215" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="15">
+        <v>2250</v>
+      </c>
+      <c r="B216" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C213" s="15" t="s">
+      <c r="C216" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="D213" s="15" t="s">
+      <c r="D216" s="15" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="4">
-        <v>1580</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="4">
-        <v>1580</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="4">
-        <v>1580</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4748,13 +4777,13 @@
         <v>1580</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>333</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4762,13 +4791,13 @@
         <v>1580</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>333</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4776,55 +4805,55 @@
         <v>1580</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>333</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="16">
-        <v>2250</v>
+      <c r="A220" s="4">
+        <v>1580</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>333</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="16">
-        <v>2250</v>
+      <c r="A221" s="4">
+        <v>1580</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>333</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="16">
-        <v>2250</v>
+      <c r="A222" s="4">
+        <v>1580</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>333</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4832,13 +4861,13 @@
         <v>2250</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>333</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4846,13 +4875,13 @@
         <v>2250</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>333</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,12 +4889,54 @@
         <v>2250</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>333</v>
       </c>
       <c r="D225" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="16">
+        <v>2250</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="16">
+        <v>2250</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="16">
+        <v>2250</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D228" s="4" t="s">
         <v>299</v>
       </c>
     </row>
